--- a/config_8.24/act_ty_phb_config.xlsx
+++ b/config_8.24/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>line|</t>
   </si>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>欢乐券数达到9万</t>
+  </si>
+  <si>
+    <t>act_gift_key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hflb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,10 +654,10 @@
     <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.375" customWidth="1"/>
+    <col min="16" max="16" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,8 +706,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -722,10 +733,10 @@
         <v>33</v>
       </c>
       <c r="H2" s="18">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I2" s="18">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>35</v>
@@ -748,8 +759,11 @@
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -766,7 +780,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -783,7 +797,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
@@ -799,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
